--- a/output/TRUXT_26262363000199.xlsx
+++ b/output/TRUXT_26262363000199.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.3848039000000001</v>
+        <v>0.3921752000000001</v>
       </c>
       <c r="C43">
-        <v>-0.01022266710933006</v>
+        <v>-0.004954090342657924</v>
       </c>
     </row>
   </sheetData>

--- a/output/TRUXT_26262363000199.xlsx
+++ b/output/TRUXT_26262363000199.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TRUXT LONG SHORT ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,480 +383,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
       <c r="B2">
-        <v>0.006311500000000025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
-        <v>0.01745489999999994</v>
-      </c>
-      <c r="C3">
         <v>0.01107350954450981</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.0385340999999999</v>
-      </c>
-      <c r="C4">
         <v>0.02071757676925046</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.05951939999999989</v>
-      </c>
-      <c r="C5">
         <v>0.02020665474537608</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.06978939999999989</v>
-      </c>
-      <c r="C6">
         <v>0.009693074048478856</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.07262820000000003</v>
-      </c>
-      <c r="C7">
         <v>0.002653606401409547</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.08106379999999991</v>
-      </c>
-      <c r="C8">
         <v>0.007864421241209119</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.09720130000000005</v>
-      </c>
-      <c r="C9">
         <v>0.01492742611490661</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.1061668</v>
-      </c>
-      <c r="C10">
         <v>0.008171244419779677</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.1184505</v>
-      </c>
-      <c r="C11">
         <v>0.0111047447817092</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.1169123000000001</v>
-      </c>
-      <c r="C12">
         <v>-0.001375295553982858</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.1165936000000001</v>
-      </c>
-      <c r="C13">
         <v>-0.0002853402187441567</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.1266632999999999</v>
-      </c>
-      <c r="C14">
         <v>0.009018231879530658</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.1308739000000001</v>
-      </c>
-      <c r="C15">
         <v>0.003737230102374145</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.1201483000000001</v>
-      </c>
-      <c r="C16">
         <v>-0.009484346574803793</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.1276048000000001</v>
-      </c>
-      <c r="C17">
         <v>0.006656707866270928</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.166086</v>
-      </c>
-      <c r="C18">
         <v>0.03412649538206991</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.1716743999999999</v>
-      </c>
-      <c r="C19">
         <v>0.004792442409907949</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.1879420999999999</v>
-      </c>
-      <c r="C20">
         <v>0.01388414733649546</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.1808057999999999</v>
-      </c>
-      <c r="C21">
         <v>-0.006007279311003422</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.1823508</v>
-      </c>
-      <c r="C22">
         <v>0.001308428532448058</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.1846734000000001</v>
-      </c>
-      <c r="C23">
         <v>0.001964391617107264</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.1936008</v>
-      </c>
-      <c r="C24">
         <v>0.007535747827206896</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.2029297000000001</v>
-      </c>
-      <c r="C25">
         <v>0.00781576218782698</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.2219146000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01578221902742949</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.2409478</v>
-      </c>
-      <c r="C27">
         <v>0.01557653865499264</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.2461992</v>
-      </c>
-      <c r="C28">
         <v>0.004231765429617562</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.2407691999999999</v>
-      </c>
-      <c r="C29">
         <v>-0.004357248825067495</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.2497954</v>
-      </c>
-      <c r="C30">
         <v>0.007274680899558295</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.2459137</v>
-      </c>
-      <c r="C31">
         <v>-0.003105868368534548</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.2665876</v>
-      </c>
-      <c r="C32">
         <v>0.01659336437186631</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.2851105</v>
-      </c>
-      <c r="C33">
         <v>0.01462425496665221</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.2807854999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.003365469350690153</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.2945808000000001</v>
-      </c>
-      <c r="C35">
         <v>0.01077096828469726</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.3066397000000001</v>
-      </c>
-      <c r="C36">
         <v>0.009314907188489041</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.3357893999999999</v>
-      </c>
-      <c r="C37">
         <v>0.02230890428325405</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.3824755</v>
-      </c>
-      <c r="C38">
         <v>0.03495019499331264</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.4173849999999999</v>
-      </c>
-      <c r="C39">
         <v>0.02525144206895513</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.4360826</v>
-      </c>
-      <c r="C40">
         <v>0.01319161695657844</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.4137473</v>
-      </c>
-      <c r="C41">
         <v>-0.01555293546485415</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.3991065</v>
-      </c>
-      <c r="C42">
         <v>-0.01035602331477481</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.3921752000000001</v>
-      </c>
-      <c r="C43">
-        <v>-0.004954090342657924</v>
+        <v>-0.007279288603119216</v>
       </c>
     </row>
   </sheetData>
